--- a/data/data15.xlsx
+++ b/data/data15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Sentiment_analysis_learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Thesis\GIT\Thesis_relevant\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD5DE0-1FCE-47D7-9092-8B0922606F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F16F9A-FE47-428C-925B-F1E7DFDF9D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportComments.com" sheetId="1" r:id="rId1"/>
@@ -807,13 +807,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -824,7 +824,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>137</v>
       </c>
